--- a/results/FrequencyTables/27194423_gRNA--LTR-1.xlsx
+++ b/results/FrequencyTables/27194423_gRNA--LTR-1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0108695652173913</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="C2">
-        <v>0.989130434782609</v>
+        <v>0.980165289256198</v>
       </c>
       <c r="D2">
-        <v>0.0217391304347826</v>
+        <v>0.028099173553719</v>
       </c>
       <c r="E2">
-        <v>0.989130434782609</v>
+        <v>0.966942148760331</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="I2">
-        <v>0.989130434782609</v>
+        <v>0.990082644628099</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="K2">
-        <v>0.989130434782609</v>
+        <v>0.986776859504132</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.902173913043478</v>
+        <v>0.892561983471074</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0479338842975207</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.056198347107438</v>
       </c>
       <c r="P2">
-        <v>0.989130434782609</v>
+        <v>0.998347107438017</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0326086956521739</v>
+        <v>0.0115702479338843</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00661157024793388</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.967391304347826</v>
+        <v>0.975206611570248</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00991735537190083</v>
       </c>
       <c r="X2">
-        <v>0.0108695652173913</v>
+        <v>0.00330578512396694</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,52 +539,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.989130434782609</v>
+        <v>0.976859504132231</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="D3">
-        <v>0.0108695652173913</v>
+        <v>0.00991735537190083</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00661157024793388</v>
       </c>
       <c r="G3">
-        <v>0.869565217391304</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0108695652173913</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="J3">
-        <v>0.989130434782609</v>
+        <v>0.985123966942149</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00661157024793388</v>
       </c>
       <c r="L3">
-        <v>0.989130434782609</v>
+        <v>0.988429752066116</v>
       </c>
       <c r="M3">
-        <v>0.0108695652173913</v>
+        <v>0.0809917355371901</v>
       </c>
       <c r="N3">
-        <v>0.956521739130435</v>
+        <v>0.938842975206612</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.940495867768595</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0217391304347826</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -593,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.988429752066116</v>
       </c>
       <c r="U3">
-        <v>0.989130434782609</v>
+        <v>0.991735537190083</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00165289256198347</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00991735537190083</v>
       </c>
       <c r="C4">
-        <v>0.0108695652173913</v>
+        <v>0.0115702479338843</v>
       </c>
       <c r="D4">
-        <v>0.956521739130435</v>
+        <v>0.947107438016529</v>
       </c>
       <c r="E4">
-        <v>0.0108695652173913</v>
+        <v>0.00991735537190083</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.028099173553719</v>
       </c>
       <c r="G4">
-        <v>0.0108695652173913</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="H4">
-        <v>0.0108695652173913</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="J4">
-        <v>0.0108695652173913</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="L4">
-        <v>0.0108695652173913</v>
+        <v>0.00826446280991736</v>
       </c>
       <c r="M4">
-        <v>0.0760869565217391</v>
+        <v>0.0231404958677686</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.978260869565217</v>
+        <v>0.991735537190083</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.967391304347826</v>
+        <v>0.986776859504132</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="U4">
-        <v>0.0108695652173913</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="V4">
-        <v>0.0217391304347826</v>
+        <v>0.00661157024793388</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.983471074380165</v>
       </c>
       <c r="X4">
-        <v>0.989130434782609</v>
+        <v>0.990082644628099</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00826446280991736</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="D5">
-        <v>0.0108695652173913</v>
+        <v>0.0148760330578512</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0214876033057851</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.119565217391304</v>
+        <v>0.0644628099173554</v>
       </c>
       <c r="H5">
-        <v>0.989130434782609</v>
+        <v>0.993388429752066</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00826446280991736</v>
       </c>
       <c r="K5">
-        <v>0.0108695652173913</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="M5">
-        <v>0.0108695652173913</v>
+        <v>0.00330578512396694</v>
       </c>
       <c r="N5">
-        <v>0.0434782608695652</v>
+        <v>0.00826446280991736</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="P5">
-        <v>0.0108695652173913</v>
+        <v>0.00165289256198347</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00495867768595041</v>
       </c>
       <c r="V5">
-        <v>0.0108695652173913</v>
+        <v>0.0132231404958678</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00661157024793388</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00330578512396694</v>
       </c>
     </row>
   </sheetData>
